--- a/biology/Botanique/Bussea/Bussea.xlsx
+++ b/biology/Botanique/Bussea/Bussea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bussea est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Afrique et de Madagascar, qui comprend sept espèces acceptées.
 Ce sont des arbres et arbustes dont certaines espèces sont exploitées pour leur bois. Les graines sont comestibles.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Bussea », est un hommage à Walter Carl Otto Busse (1865–1933), botaniste allemand[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Bussea », est un hommage à Walter Carl Otto Busse (1865–1933), botaniste allemand.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (28 octobre 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (28 octobre 2018) :
 Bussea eggelingii Verdc.
 Bussea gossweileri Baker f.
 Bussea massaiensis (Taub.)Harms
